--- a/page/eb07/s06/eb07-s06.xlsx
+++ b/page/eb07/s06/eb07-s06.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eb-corpus\production\eb07\s06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp2\page\eb07\s06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A740DB7-B003-4BE8-87E6-1679629EB0FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="345" windowWidth="21930" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="345" windowWidth="21930" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="s06" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="157">
   <si>
     <t>p-pg</t>
   </si>
@@ -493,12 +492,15 @@
   </si>
   <si>
     <t>tei-p-comments</t>
+  </si>
+  <si>
+    <t>add @@@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -850,12 +852,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1756,7 @@
       <c r="H48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -1767,7 +1769,7 @@
       <c r="H49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -1780,7 +1782,7 @@
       <c r="H50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -1793,7 +1795,7 @@
       <c r="H51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -1811,7 +1813,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -1829,7 +1831,7 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -1847,7 +1849,7 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>58</v>
       </c>
@@ -1865,7 +1867,7 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -1883,7 +1885,7 @@
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -1901,7 +1903,7 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -1919,7 +1921,7 @@
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -1937,7 +1939,7 @@
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -1955,7 +1957,7 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -1973,7 +1975,7 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -1990,8 +1992,11 @@
         <v>136</v>
       </c>
       <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -2009,7 +2014,7 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>67</v>
       </c>
